--- a/Курсовая/ПЗ/Файлы/DFA tables.xlsx
+++ b/Курсовая/ПЗ/Файлы/DFA tables.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\6_Semester\Курсовая\ПЗ\Файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A6436-7094-4318-802C-8579599BB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B1E61-2AE0-4BC0-98B0-45555EC72B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>цифра</t>
   </si>
@@ -84,18 +84,9 @@
     <t>2,4,6,7,8,9,10,14,15</t>
   </si>
   <si>
-    <t>1,2,4,6,7,8,9,10,12</t>
-  </si>
-  <si>
-    <t>1,3,5,6,7,8,9,10,12</t>
-  </si>
-  <si>
     <t>2,4,6,7,8,9,10,11,12</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,3,5,6,7,8,9,10,12</t>
-  </si>
-  <si>
     <t>4,6,7,8,9,10,11,12</t>
   </si>
   <si>
@@ -121,6 +112,108 @@
   </si>
   <si>
     <t>8,9,10,12,13</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>не буква</t>
+  </si>
+  <si>
+    <t>не цифра</t>
+  </si>
+  <si>
+    <t>не "_"</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9,10,15</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,9,10,15</t>
+  </si>
+  <si>
+    <t>2,3,4,6,7,8,9,10,11,14,15</t>
+  </si>
+  <si>
+    <t>2,3,6,7,8,9,10,12,14,15</t>
+  </si>
+  <si>
+    <t>2,3,5,6,7,8,9,10,13,14,15</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6</t>
+  </si>
+  <si>
+    <t>не буква, не цифра, не "_"</t>
+  </si>
+  <si>
+    <t>{1,2}</t>
+  </si>
+  <si>
+    <t>{2,3,4}</t>
+  </si>
+  <si>
+    <t>{4,5}</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,6,7}</t>
+  </si>
+  <si>
+    <t>{1,2,3,5,6,7}</t>
+  </si>
+  <si>
+    <t>{7}</t>
+  </si>
+  <si>
+    <t>{7,8,9,10,11,16}</t>
+  </si>
+  <si>
+    <t>{8,9,10,11,12,15,16}</t>
+  </si>
+  <si>
+    <t>{8,9,10,11,13,15,16}</t>
+  </si>
+  <si>
+    <t>{8,9,10,11,14,15,16}</t>
+  </si>
+  <si>
+    <t>{17}</t>
+  </si>
+  <si>
+    <t>Для R1</t>
+  </si>
+  <si>
+    <t>Для R2</t>
   </si>
 </sst>
 </file>
@@ -156,12 +249,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -444,21 +541,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.23046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="19.61328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.61328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -481,8 +583,17 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -504,8 +615,17 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,8 +653,14 @@
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -553,8 +679,14 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -568,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -582,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,120 +728,433 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1.2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>1.2</v>
+      </c>
+      <c r="C43">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:K33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>